--- a/config_hlw/active_daily_task_info_config.xlsx
+++ b/config_hlw/active_daily_task_info_config.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -277,10 +277,6 @@
   </si>
   <si>
     <t>vip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signin_cpl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -836,7 +832,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -868,9 +864,6 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
@@ -892,7 +885,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1035,13 +1028,13 @@
         <v>12554</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>32</v>
@@ -1091,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1130,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1168,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1255,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1272,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1302,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1319,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/active_daily_task_info_config.xlsx
+++ b/config_hlw/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|索引表" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -152,15 +152,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"x1","x20"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_pms_1","ty_icon_hytb",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"250福利券赛门票","活跃度"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -363,6 +355,10 @@
   </si>
   <si>
     <t>"V5三倍", ""</t>
+  </si>
+  <si>
+    <t>"x1000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -831,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -845,19 +841,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -865,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>13002</v>
@@ -884,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -908,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -938,10 +934,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -958,25 +954,25 @@
         <v>12553</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1005,7 +1001,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>13</v>
@@ -1014,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1028,22 +1024,22 @@
         <v>12554</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>13</v>
@@ -1075,7 +1071,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>13</v>
@@ -1084,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1114,7 +1110,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>13</v>
@@ -1123,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1146,13 +1142,13 @@
         <v>27</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>13</v>
@@ -1161,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1190,7 +1186,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>29</v>
@@ -1228,10 +1224,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1242,13 +1238,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1259,13 +1255,13 @@
         <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1276,7 +1272,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -1289,13 +1285,13 @@
         <v>120</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1306,13 +1302,13 @@
         <v>150</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/active_daily_task_info_config.xlsx
+++ b/config_hlw/active_daily_task_info_config.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -149,10 +149,6 @@
   </si>
   <si>
     <t>3D捕鱼中累计在线90分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_pms_1","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -841,19 +837,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -861,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
       </c>
       <c r="E2">
         <v>13002</v>
@@ -880,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -904,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -934,10 +930,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -954,25 +950,25 @@
         <v>12553</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1001,7 +997,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>13</v>
@@ -1010,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1024,22 +1020,22 @@
         <v>12554</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>13</v>
@@ -1071,7 +1067,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>13</v>
@@ -1080,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1110,7 +1106,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>13</v>
@@ -1119,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1142,13 +1138,13 @@
         <v>27</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>13</v>
@@ -1157,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1186,7 +1182,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>29</v>
@@ -1224,10 +1220,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1238,13 +1234,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1255,13 +1251,13 @@
         <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1272,7 +1268,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -1285,13 +1281,13 @@
         <v>120</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1302,13 +1298,13 @@
         <v>150</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/active_daily_task_info_config.xlsx
+++ b/config_hlw/active_daily_task_info_config.xlsx
@@ -84,19 +84,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼中累计开炮1000次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rw_icon_ljsj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rw_icon_jn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中使用任意技能3次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,19 +128,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼中捕获3条彩金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rw_icon_js</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"shop_bay","jing_bi"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼中累计在线90分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进入3D捕鱼任意场1次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,9 +252,6 @@
   </si>
   <si>
     <t>rw_icon_bh</t>
-  </si>
-  <si>
-    <t>3D捕鱼中捕获任意100条鱼</t>
   </si>
   <si>
     <r>
@@ -355,6 +332,24 @@
   <si>
     <t>"x1000","x20"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入福卡场任意场1次</t>
+  </si>
+  <si>
+    <t>福卡场中使用任意技能3次</t>
+  </si>
+  <si>
+    <t>福卡场中捕获任意100条鱼</t>
+  </si>
+  <si>
+    <t>福卡场中累计开炮1000次</t>
+  </si>
+  <si>
+    <t>福卡场中累计在线90分钟</t>
+  </si>
+  <si>
+    <t>福卡场中捕获3条彩金鱼</t>
   </si>
 </sst>
 </file>
@@ -837,19 +832,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -857,10 +852,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>13002</v>
@@ -877,7 +872,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -900,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -930,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -950,25 +945,25 @@
         <v>12553</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -982,22 +977,22 @@
         <v>12545</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>13</v>
@@ -1006,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1020,22 +1015,22 @@
         <v>12554</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>13</v>
@@ -1052,22 +1047,22 @@
         <v>12546</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>13</v>
@@ -1076,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1091,22 +1086,22 @@
         <v>12547</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>13</v>
@@ -1115,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1129,22 +1124,22 @@
         <v>12543</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>13</v>
@@ -1153,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1173,19 +1168,19 @@
         <v>12</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1220,10 +1215,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1234,13 +1229,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1251,13 +1246,13 @@
         <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1268,7 +1263,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -1281,13 +1276,13 @@
         <v>120</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1298,13 +1293,13 @@
         <v>150</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
